--- a/data/pca/factorExposure/factorExposure_2014-11-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.007598566021328019</v>
+        <v>-0.008976171909667699</v>
       </c>
       <c r="C2">
-        <v>-0.05217673385564065</v>
+        <v>0.06669737888732132</v>
       </c>
       <c r="D2">
-        <v>-0.1707741227888922</v>
+        <v>0.02053841803924422</v>
       </c>
       <c r="E2">
-        <v>0.1231629236132569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1650081474900899</v>
+      </c>
+      <c r="F2">
+        <v>0.04541357749501802</v>
+      </c>
+      <c r="G2">
+        <v>-0.1041166365404659</v>
+      </c>
+      <c r="H2">
+        <v>0.06479515962347478</v>
+      </c>
+      <c r="I2">
+        <v>-0.104469754765033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.02958672482912167</v>
+        <v>-0.01722831697394202</v>
       </c>
       <c r="C4">
-        <v>-0.1363383772678822</v>
+        <v>0.1479508125650798</v>
       </c>
       <c r="D4">
-        <v>-0.1032211713504401</v>
+        <v>-0.01332491569089149</v>
       </c>
       <c r="E4">
-        <v>0.06181793570057956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.1042643693922965</v>
+      </c>
+      <c r="F4">
+        <v>-0.0707440966868024</v>
+      </c>
+      <c r="G4">
+        <v>-0.03893267018726286</v>
+      </c>
+      <c r="H4">
+        <v>0.1026148190194615</v>
+      </c>
+      <c r="I4">
+        <v>0.002467804226616377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.0149359957576986</v>
+        <v>-0.0302933425437544</v>
       </c>
       <c r="C6">
-        <v>-0.06302193621810243</v>
+        <v>0.07011999833813973</v>
       </c>
       <c r="D6">
-        <v>-0.07841645168605128</v>
+        <v>-0.0002631801888534164</v>
       </c>
       <c r="E6">
-        <v>0.07709686262420312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1097856889764742</v>
+      </c>
+      <c r="F6">
+        <v>0.03444863241139449</v>
+      </c>
+      <c r="G6">
+        <v>0.0146430127440339</v>
+      </c>
+      <c r="H6">
+        <v>0.0420864908828054</v>
+      </c>
+      <c r="I6">
+        <v>-0.04327236182655787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01747960594181792</v>
+        <v>-0.004906953656664893</v>
       </c>
       <c r="C7">
-        <v>-0.0437873791576471</v>
+        <v>0.06355191799642064</v>
       </c>
       <c r="D7">
-        <v>-0.053557320491223</v>
+        <v>0.005685477042293973</v>
       </c>
       <c r="E7">
-        <v>0.05425796183401713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.06660050973512782</v>
+      </c>
+      <c r="F7">
+        <v>-0.02322955440938632</v>
+      </c>
+      <c r="G7">
+        <v>0.04334839631391325</v>
+      </c>
+      <c r="H7">
+        <v>0.08478546270080517</v>
+      </c>
+      <c r="I7">
+        <v>-0.009718174384246102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.01145695750519725</v>
+        <v>0.00796182744133571</v>
       </c>
       <c r="C8">
-        <v>-0.06641290816474915</v>
+        <v>0.06867800291732411</v>
       </c>
       <c r="D8">
-        <v>-0.07975458389515658</v>
+        <v>-0.0180175188736908</v>
       </c>
       <c r="E8">
-        <v>0.1035500468399683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0848287425311402</v>
+      </c>
+      <c r="F8">
+        <v>-0.02403937970424113</v>
+      </c>
+      <c r="G8">
+        <v>-0.06788925378387983</v>
+      </c>
+      <c r="H8">
+        <v>0.02813101429333188</v>
+      </c>
+      <c r="I8">
+        <v>-0.009424629535124239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.01958680489095066</v>
+        <v>-0.01076038251783023</v>
       </c>
       <c r="C9">
-        <v>-0.1115441893962601</v>
+        <v>0.1150770379785345</v>
       </c>
       <c r="D9">
-        <v>-0.082295724859791</v>
+        <v>-0.009154996875788158</v>
       </c>
       <c r="E9">
-        <v>0.06481959028810452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.07848328773323326</v>
+      </c>
+      <c r="F9">
+        <v>-0.01539495560445384</v>
+      </c>
+      <c r="G9">
+        <v>-0.009155739571263151</v>
+      </c>
+      <c r="H9">
+        <v>0.1015394869640995</v>
+      </c>
+      <c r="I9">
+        <v>-0.01586926664507742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2500255901390074</v>
+        <v>-0.2500491323103797</v>
       </c>
       <c r="C10">
-        <v>0.09773009405085779</v>
+        <v>-0.08492660911671235</v>
       </c>
       <c r="D10">
-        <v>-0.01233367950720471</v>
+        <v>0.0002010034934457572</v>
       </c>
       <c r="E10">
-        <v>-0.06930093025224987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.001113733439711182</v>
+      </c>
+      <c r="F10">
+        <v>-0.0124032155337344</v>
+      </c>
+      <c r="G10">
+        <v>-0.0009948993964058084</v>
+      </c>
+      <c r="H10">
+        <v>0.03736685282543543</v>
+      </c>
+      <c r="I10">
+        <v>0.1719555869558027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.003042124745317052</v>
+        <v>-0.009959089986272481</v>
       </c>
       <c r="C11">
-        <v>-0.05628993241185401</v>
+        <v>0.07802817121072023</v>
       </c>
       <c r="D11">
-        <v>-0.04013729947697452</v>
+        <v>-0.01259037065608215</v>
       </c>
       <c r="E11">
-        <v>0.03525893292057202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04127550975353098</v>
+      </c>
+      <c r="F11">
+        <v>-0.01000739994302166</v>
+      </c>
+      <c r="G11">
+        <v>0.02934850537178058</v>
+      </c>
+      <c r="H11">
+        <v>0.03959530933783259</v>
+      </c>
+      <c r="I11">
+        <v>0.006196377551130178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.005553376350070149</v>
+        <v>-0.01156051954739883</v>
       </c>
       <c r="C12">
-        <v>-0.05299550282399802</v>
+        <v>0.06093094787269571</v>
       </c>
       <c r="D12">
-        <v>-0.0335980607801479</v>
+        <v>-0.002812104697290982</v>
       </c>
       <c r="E12">
-        <v>0.03065157514765168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03492719125915925</v>
+      </c>
+      <c r="F12">
+        <v>0.01983493510207818</v>
+      </c>
+      <c r="G12">
+        <v>0.03231913762828417</v>
+      </c>
+      <c r="H12">
+        <v>0.04127478543047933</v>
+      </c>
+      <c r="I12">
+        <v>0.01022671060725117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.005888762102860348</v>
+        <v>-0.001258154736213859</v>
       </c>
       <c r="C13">
-        <v>-0.07328279550100919</v>
+        <v>0.1073888284876582</v>
       </c>
       <c r="D13">
-        <v>-0.110546855897536</v>
+        <v>0.01715769733736829</v>
       </c>
       <c r="E13">
-        <v>0.1208407760710205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1579957242649217</v>
+      </c>
+      <c r="F13">
+        <v>0.1004106529411483</v>
+      </c>
+      <c r="G13">
+        <v>0.03494703759629451</v>
+      </c>
+      <c r="H13">
+        <v>0.08781550256764667</v>
+      </c>
+      <c r="I13">
+        <v>0.112301690533451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.005929186474867824</v>
+        <v>-0.006707627054477397</v>
       </c>
       <c r="C14">
-        <v>-0.05197398419071341</v>
+        <v>0.0745455540208987</v>
       </c>
       <c r="D14">
-        <v>-0.05571633909157533</v>
+        <v>-0.01609011304123306</v>
       </c>
       <c r="E14">
-        <v>0.06169455579517534</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.09059685397424797</v>
+      </c>
+      <c r="F14">
+        <v>0.03425718610860889</v>
+      </c>
+      <c r="G14">
+        <v>0.06604517815470842</v>
+      </c>
+      <c r="H14">
+        <v>0.1563902601127746</v>
+      </c>
+      <c r="I14">
+        <v>-0.02287953813949158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001398437917848388</v>
+        <v>0.002261221581250875</v>
       </c>
       <c r="C15">
-        <v>-0.06060376186712472</v>
+        <v>0.06957840104981475</v>
       </c>
       <c r="D15">
-        <v>-0.06413893937158575</v>
+        <v>-0.003338512294811731</v>
       </c>
       <c r="E15">
-        <v>0.07061568826193475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.06188269057379909</v>
+      </c>
+      <c r="F15">
+        <v>-0.007298425488309075</v>
+      </c>
+      <c r="G15">
+        <v>0.01222402921968618</v>
+      </c>
+      <c r="H15">
+        <v>0.05288817521977038</v>
+      </c>
+      <c r="I15">
+        <v>-0.009297005425230914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.006298105005400652</v>
+        <v>-0.01036207730309882</v>
       </c>
       <c r="C16">
-        <v>-0.05093376730355246</v>
+        <v>0.06540616116878901</v>
       </c>
       <c r="D16">
-        <v>-0.03330188424707207</v>
+        <v>-0.003788212858947881</v>
       </c>
       <c r="E16">
-        <v>0.02313173259322303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02869011117879788</v>
+      </c>
+      <c r="F16">
+        <v>0.001281608207911503</v>
+      </c>
+      <c r="G16">
+        <v>0.03033594564529924</v>
+      </c>
+      <c r="H16">
+        <v>0.03685019837748417</v>
+      </c>
+      <c r="I16">
+        <v>0.008137132180442199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1216,22 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1245,225 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002745707801530523</v>
+        <v>-0.003936934891362263</v>
       </c>
       <c r="C20">
-        <v>-0.055413836928407</v>
+        <v>0.0795702485637539</v>
       </c>
       <c r="D20">
-        <v>-0.07577319265110147</v>
+        <v>0.00906819061689304</v>
       </c>
       <c r="E20">
-        <v>0.04281884398036197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.06544439599444954</v>
+      </c>
+      <c r="F20">
+        <v>-0.01651328474446298</v>
+      </c>
+      <c r="G20">
+        <v>0.06189977582443465</v>
+      </c>
+      <c r="H20">
+        <v>0.06900065619344614</v>
+      </c>
+      <c r="I20">
+        <v>-0.003491902416107391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.005409170043298109</v>
+        <v>-0.007496301661824144</v>
       </c>
       <c r="C21">
-        <v>-0.07092683681818428</v>
+        <v>0.07799689541119632</v>
       </c>
       <c r="D21">
-        <v>-0.1092696353089038</v>
+        <v>0.005058909933986881</v>
       </c>
       <c r="E21">
-        <v>0.04849228779264348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.09706283913482516</v>
+      </c>
+      <c r="F21">
+        <v>0.07482483667479856</v>
+      </c>
+      <c r="G21">
+        <v>-0.006779306244822124</v>
+      </c>
+      <c r="H21">
+        <v>0.1791372001605608</v>
+      </c>
+      <c r="I21">
+        <v>0.04717178153657253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01282501555024402</v>
+        <v>0.01611192294280322</v>
       </c>
       <c r="C22">
-        <v>-0.1102182097095292</v>
+        <v>0.1351957102968049</v>
       </c>
       <c r="D22">
-        <v>-0.2640173838356056</v>
+        <v>0.05130805762566283</v>
       </c>
       <c r="E22">
-        <v>0.1068628650016274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.3092736125892857</v>
+      </c>
+      <c r="F22">
+        <v>-0.1262921622771692</v>
+      </c>
+      <c r="G22">
+        <v>-0.3230739272947076</v>
+      </c>
+      <c r="H22">
+        <v>-0.410429055958115</v>
+      </c>
+      <c r="I22">
+        <v>0.05851457598236953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01324730023575159</v>
+        <v>0.01263814243880205</v>
       </c>
       <c r="C23">
-        <v>-0.1119954414884719</v>
+        <v>0.1394827751012403</v>
       </c>
       <c r="D23">
-        <v>-0.2627532306838916</v>
+        <v>0.05379069834747464</v>
       </c>
       <c r="E23">
-        <v>0.1058606823142885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.3037609897130322</v>
+      </c>
+      <c r="F23">
+        <v>-0.120193511232955</v>
+      </c>
+      <c r="G23">
+        <v>-0.3135513501347326</v>
+      </c>
+      <c r="H23">
+        <v>-0.3833645228496573</v>
+      </c>
+      <c r="I23">
+        <v>0.06097175721737465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0009641978465618737</v>
+        <v>-0.01060788344067013</v>
       </c>
       <c r="C24">
-        <v>-0.06802417695837773</v>
+        <v>0.07512215200728317</v>
       </c>
       <c r="D24">
-        <v>-0.03670057519028126</v>
+        <v>-0.01674845741001227</v>
       </c>
       <c r="E24">
-        <v>0.04496878752645752</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04545000644007952</v>
+      </c>
+      <c r="F24">
+        <v>-0.003676913615842669</v>
+      </c>
+      <c r="G24">
+        <v>0.032758654022999</v>
+      </c>
+      <c r="H24">
+        <v>0.05487230783074518</v>
+      </c>
+      <c r="I24">
+        <v>0.002799136378307688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.009097985326856213</v>
+        <v>-0.01685904590146992</v>
       </c>
       <c r="C25">
-        <v>-0.06356554108356123</v>
+        <v>0.07314334272536092</v>
       </c>
       <c r="D25">
-        <v>-0.03624111325544324</v>
+        <v>-0.008093690816513545</v>
       </c>
       <c r="E25">
-        <v>0.0224960138624608</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03469281686077326</v>
+      </c>
+      <c r="F25">
+        <v>-0.006577829755381586</v>
+      </c>
+      <c r="G25">
+        <v>0.02920391931425789</v>
+      </c>
+      <c r="H25">
+        <v>0.03842490265046787</v>
+      </c>
+      <c r="I25">
+        <v>0.01719760489342281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.003976487450875662</v>
+        <v>-0.01643566805120509</v>
       </c>
       <c r="C26">
-        <v>-0.04306258490172385</v>
+        <v>0.05994223883643991</v>
       </c>
       <c r="D26">
-        <v>-0.04411441070348252</v>
+        <v>-0.03569269936229877</v>
       </c>
       <c r="E26">
-        <v>0.06024462528732231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.06247946245758887</v>
+      </c>
+      <c r="F26">
+        <v>0.00455653908533873</v>
+      </c>
+      <c r="G26">
+        <v>0.02030868666964742</v>
+      </c>
+      <c r="H26">
+        <v>0.1321958590972085</v>
+      </c>
+      <c r="I26">
+        <v>0.01095571128118635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3204610167486117</v>
+        <v>-0.3131652902219788</v>
       </c>
       <c r="C28">
-        <v>0.1114306535036393</v>
+        <v>-0.105905727721202</v>
       </c>
       <c r="D28">
-        <v>-0.01351005802133058</v>
+        <v>0.01537686239630407</v>
       </c>
       <c r="E28">
-        <v>-0.06394362892810529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0004465087432247631</v>
+      </c>
+      <c r="F28">
+        <v>-0.04970663933815232</v>
+      </c>
+      <c r="G28">
+        <v>-0.0738574418515059</v>
+      </c>
+      <c r="H28">
+        <v>0.07110633547369387</v>
+      </c>
+      <c r="I28">
+        <v>0.1714890592126561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.003052629724993142</v>
+        <v>-0.003536650296667224</v>
       </c>
       <c r="C29">
-        <v>-0.05083415089824335</v>
+        <v>0.07677302658812971</v>
       </c>
       <c r="D29">
-        <v>-0.0716597764068939</v>
+        <v>-0.009658759111640386</v>
       </c>
       <c r="E29">
-        <v>0.08465928710612811</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1136001375804886</v>
+      </c>
+      <c r="F29">
+        <v>0.04689014017397994</v>
+      </c>
+      <c r="G29">
+        <v>0.09317396132648709</v>
+      </c>
+      <c r="H29">
+        <v>0.1983286172908396</v>
+      </c>
+      <c r="I29">
+        <v>-0.04716391475950722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.01786872134143636</v>
+        <v>-0.01851021753089689</v>
       </c>
       <c r="C30">
-        <v>-0.1563545929769957</v>
+        <v>0.1507628318536353</v>
       </c>
       <c r="D30">
-        <v>-0.101427802476652</v>
+        <v>-0.01733831121412686</v>
       </c>
       <c r="E30">
-        <v>0.08490291645265245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.09594544257505351</v>
+      </c>
+      <c r="F30">
+        <v>-0.02327636863639217</v>
+      </c>
+      <c r="G30">
+        <v>-0.02206740810479715</v>
+      </c>
+      <c r="H30">
+        <v>0.03387495395908002</v>
+      </c>
+      <c r="I30">
+        <v>-0.02077537935330064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.00313988372043649</v>
+        <v>-0.005788022094526641</v>
       </c>
       <c r="C31">
-        <v>-0.09954632584498178</v>
+        <v>0.1002636337666765</v>
       </c>
       <c r="D31">
-        <v>0.0098076792217673</v>
+        <v>-0.02759831426990115</v>
       </c>
       <c r="E31">
-        <v>0.0173131192457785</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.0001262071659865556</v>
+      </c>
+      <c r="F31">
+        <v>0.0002800644569862652</v>
+      </c>
+      <c r="G31">
+        <v>-0.01796972562937445</v>
+      </c>
+      <c r="H31">
+        <v>0.05436970927461428</v>
+      </c>
+      <c r="I31">
+        <v>0.03139816701004329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01695293169753445</v>
+        <v>-0.01972093163152157</v>
       </c>
       <c r="C32">
-        <v>-0.063920219856356</v>
+        <v>0.06518649817618427</v>
       </c>
       <c r="D32">
-        <v>-0.1276970443578786</v>
+        <v>0.02121308928722974</v>
       </c>
       <c r="E32">
-        <v>0.05408740441667582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.1128626311816757</v>
+      </c>
+      <c r="F32">
+        <v>0.02714264496169958</v>
+      </c>
+      <c r="G32">
+        <v>-0.03024712686354565</v>
+      </c>
+      <c r="H32">
+        <v>0.1079234614972348</v>
+      </c>
+      <c r="I32">
+        <v>0.2187954010216337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0004628082089298047</v>
+        <v>-0.008249256967429406</v>
       </c>
       <c r="C33">
-        <v>-0.08068996645284586</v>
+        <v>0.1058258016845423</v>
       </c>
       <c r="D33">
-        <v>-0.05641423547230642</v>
+        <v>-0.003459147514636153</v>
       </c>
       <c r="E33">
-        <v>0.06107863825502436</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.07278305815302927</v>
+      </c>
+      <c r="F33">
+        <v>-0.002575640599272356</v>
+      </c>
+      <c r="G33">
+        <v>0.02859199780709563</v>
+      </c>
+      <c r="H33">
+        <v>0.0589099901405599</v>
+      </c>
+      <c r="I33">
+        <v>0.02751287680167067</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.001131538178346132</v>
+        <v>-0.01142264292072375</v>
       </c>
       <c r="C34">
-        <v>-0.05223568003366536</v>
+        <v>0.05530450963783776</v>
       </c>
       <c r="D34">
-        <v>-0.01971657034088045</v>
+        <v>-0.008714506165005995</v>
       </c>
       <c r="E34">
-        <v>0.02450143947250872</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0245709871728368</v>
+      </c>
+      <c r="F34">
+        <v>0.009636646336264168</v>
+      </c>
+      <c r="G34">
+        <v>0.02968475524576467</v>
+      </c>
+      <c r="H34">
+        <v>0.01367022870547086</v>
+      </c>
+      <c r="I34">
+        <v>0.02139209348126982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001958365398144102</v>
+        <v>-0.005897940063857755</v>
       </c>
       <c r="C35">
-        <v>-0.007092911921620992</v>
+        <v>0.03516929736493718</v>
       </c>
       <c r="D35">
-        <v>-0.01227173523067138</v>
+        <v>-0.001532591691121801</v>
       </c>
       <c r="E35">
-        <v>0.006163855040815842</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.04066410554607317</v>
+      </c>
+      <c r="F35">
+        <v>0.01001390330098161</v>
+      </c>
+      <c r="G35">
+        <v>0.03908361117650784</v>
+      </c>
+      <c r="H35">
+        <v>0.1129161376026902</v>
+      </c>
+      <c r="I35">
+        <v>0.007663610478938741</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.001167273462708741</v>
+        <v>-0.008290071838277902</v>
       </c>
       <c r="C36">
-        <v>-0.03729201028209561</v>
+        <v>0.04703174307126822</v>
       </c>
       <c r="D36">
-        <v>-0.04039998507852573</v>
+        <v>-0.02366167773664754</v>
       </c>
       <c r="E36">
-        <v>0.06621605404896989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.06255654864342504</v>
+      </c>
+      <c r="F36">
+        <v>0.001975459611045612</v>
+      </c>
+      <c r="G36">
+        <v>0.01436823691912136</v>
+      </c>
+      <c r="H36">
+        <v>0.07341566607947742</v>
+      </c>
+      <c r="I36">
+        <v>0.00286802185109061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.009443860275909941</v>
+        <v>-0.00764084177530547</v>
       </c>
       <c r="C38">
-        <v>-0.03955966177697499</v>
+        <v>0.05946863636730464</v>
       </c>
       <c r="D38">
-        <v>-0.0455926530297338</v>
+        <v>-0.01176738065937364</v>
       </c>
       <c r="E38">
-        <v>0.05124167305697973</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.06639666333340113</v>
+      </c>
+      <c r="F38">
+        <v>-0.04823206197364332</v>
+      </c>
+      <c r="G38">
+        <v>0.006562018436361262</v>
+      </c>
+      <c r="H38">
+        <v>0.06377086704569043</v>
+      </c>
+      <c r="I38">
+        <v>0.03447288904189109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.002357852859082505</v>
+        <v>-0.00793591251856997</v>
       </c>
       <c r="C39">
-        <v>-0.1184772621976394</v>
+        <v>0.1278404881842303</v>
       </c>
       <c r="D39">
-        <v>-0.07192754422443945</v>
+        <v>-0.02280591593246304</v>
       </c>
       <c r="E39">
-        <v>0.06205105327300595</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06197815096465326</v>
+      </c>
+      <c r="F39">
+        <v>0.01636355456442629</v>
+      </c>
+      <c r="G39">
+        <v>0.04857740874417565</v>
+      </c>
+      <c r="H39">
+        <v>0.05069135116627838</v>
+      </c>
+      <c r="I39">
+        <v>-0.03382466742554925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.002489120411945507</v>
+        <v>-0.008623116533907394</v>
       </c>
       <c r="C40">
-        <v>-0.01088229500854788</v>
+        <v>0.05340700304708737</v>
       </c>
       <c r="D40">
-        <v>-0.07512057670720608</v>
+        <v>0.00525486135034882</v>
       </c>
       <c r="E40">
-        <v>0.1134693954926388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.1367173962370015</v>
+      </c>
+      <c r="F40">
+        <v>0.02560065661139692</v>
+      </c>
+      <c r="G40">
+        <v>0.06757854272438656</v>
+      </c>
+      <c r="H40">
+        <v>-0.000551481006030989</v>
+      </c>
+      <c r="I40">
+        <v>0.03667538027204997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.007520880668708242</v>
+        <v>-0.01767865683535264</v>
       </c>
       <c r="C41">
-        <v>-0.02162115836063601</v>
+        <v>0.04813223631023476</v>
       </c>
       <c r="D41">
-        <v>0.001347117885802709</v>
+        <v>-0.005200146429956441</v>
       </c>
       <c r="E41">
-        <v>-0.006513959443476178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.003135226784274251</v>
+      </c>
+      <c r="F41">
+        <v>-0.005699823040542565</v>
+      </c>
+      <c r="G41">
+        <v>0.01154703661679056</v>
+      </c>
+      <c r="H41">
+        <v>0.03560530988743436</v>
+      </c>
+      <c r="I41">
+        <v>0.04584685532449429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.006772393005617432</v>
+        <v>-0.008720173783758028</v>
       </c>
       <c r="C43">
-        <v>-0.01275744267956095</v>
+        <v>0.03963301203041018</v>
       </c>
       <c r="D43">
-        <v>-0.02242708479338479</v>
+        <v>-0.01171841394826757</v>
       </c>
       <c r="E43">
-        <v>0.02590345044196594</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03331753406527947</v>
+      </c>
+      <c r="F43">
+        <v>-0.0138555423353162</v>
+      </c>
+      <c r="G43">
+        <v>0.02307253755645166</v>
+      </c>
+      <c r="H43">
+        <v>0.05206829887121557</v>
+      </c>
+      <c r="I43">
+        <v>0.01987772141263165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01269672702379018</v>
+        <v>-0.005074128468324173</v>
       </c>
       <c r="C44">
-        <v>-0.06672396717925873</v>
+        <v>0.08150662692133216</v>
       </c>
       <c r="D44">
-        <v>-0.09771899768304415</v>
+        <v>-0.0225077981269232</v>
       </c>
       <c r="E44">
-        <v>0.0918966290980002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.1144186425394954</v>
+      </c>
+      <c r="F44">
+        <v>-0.007463876617954323</v>
+      </c>
+      <c r="G44">
+        <v>0.006541460635946555</v>
+      </c>
+      <c r="H44">
+        <v>0.02548853884925947</v>
+      </c>
+      <c r="I44">
+        <v>-0.04153608082634278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.009318681644562777</v>
+        <v>0.003083232520299788</v>
       </c>
       <c r="C46">
-        <v>-0.05573574210193948</v>
+        <v>0.06666927073859406</v>
       </c>
       <c r="D46">
-        <v>-0.05717502905967514</v>
+        <v>-0.01588057362061857</v>
       </c>
       <c r="E46">
-        <v>0.08505297170195066</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.07266544616379721</v>
+      </c>
+      <c r="F46">
+        <v>0.005140856083280997</v>
+      </c>
+      <c r="G46">
+        <v>0.05475741211567876</v>
+      </c>
+      <c r="H46">
+        <v>0.1193896361553338</v>
+      </c>
+      <c r="I46">
+        <v>-0.00349089896796733</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.02305026966877862</v>
+        <v>-0.02330361267775024</v>
       </c>
       <c r="C47">
-        <v>-0.119534834874839</v>
+        <v>0.104117187555324</v>
       </c>
       <c r="D47">
-        <v>0.01912866207987311</v>
+        <v>-0.02792900317806276</v>
       </c>
       <c r="E47">
-        <v>-0.02744451151954716</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.0173804504061671</v>
+      </c>
+      <c r="F47">
+        <v>-0.006078175276825327</v>
+      </c>
+      <c r="G47">
+        <v>-0.007370029705943043</v>
+      </c>
+      <c r="H47">
+        <v>0.08406924195148602</v>
+      </c>
+      <c r="I47">
+        <v>0.03025259014627629</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.006223089539590878</v>
+        <v>-0.0141572894744333</v>
       </c>
       <c r="C48">
-        <v>-0.0398171806410709</v>
+        <v>0.05243837205765806</v>
       </c>
       <c r="D48">
-        <v>-0.03119851523796166</v>
+        <v>-0.0313739442147281</v>
       </c>
       <c r="E48">
-        <v>0.07524284550031714</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.06421005140095729</v>
+      </c>
+      <c r="F48">
+        <v>-0.001641777169252246</v>
+      </c>
+      <c r="G48">
+        <v>0.01760297835203619</v>
+      </c>
+      <c r="H48">
+        <v>0.1245975279402985</v>
+      </c>
+      <c r="I48">
+        <v>-0.002036511536400409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.00455727418350576</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.00904310802307603</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.008280903860219417</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.000265649657249603</v>
+      </c>
+      <c r="F49">
+        <v>0.00747059824721091</v>
+      </c>
+      <c r="G49">
+        <v>0.01944864313280982</v>
+      </c>
+      <c r="H49">
+        <v>-0.01279689277899462</v>
+      </c>
+      <c r="I49">
+        <v>-0.00169746631756357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.009996540698198171</v>
+        <v>-0.01241398816709821</v>
       </c>
       <c r="C50">
-        <v>-0.09146402252214024</v>
+        <v>0.09075641386961177</v>
       </c>
       <c r="D50">
-        <v>-0.001243427258050585</v>
+        <v>-0.01055132462810088</v>
       </c>
       <c r="E50">
-        <v>0.003580267968375658</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.001277313454269251</v>
+      </c>
+      <c r="F50">
+        <v>-0.01533124735565652</v>
+      </c>
+      <c r="G50">
+        <v>-0.01928283777152094</v>
+      </c>
+      <c r="H50">
+        <v>0.0639879008209869</v>
+      </c>
+      <c r="I50">
+        <v>0.05712704869687888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.01017438760171742</v>
+        <v>0.003681466953551336</v>
       </c>
       <c r="C51">
-        <v>-0.04344300386892269</v>
+        <v>0.03690673898384252</v>
       </c>
       <c r="D51">
-        <v>-0.08072104095909613</v>
+        <v>-0.003564469366121226</v>
       </c>
       <c r="E51">
-        <v>0.05486486050925233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.06131443686715612</v>
+      </c>
+      <c r="F51">
+        <v>0.003102369062322143</v>
+      </c>
+      <c r="G51">
+        <v>-0.002550479983761286</v>
+      </c>
+      <c r="H51">
+        <v>0.1060263019037698</v>
+      </c>
+      <c r="I51">
+        <v>-0.0327237234437481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.05347258761579678</v>
+        <v>-0.05298002258724595</v>
       </c>
       <c r="C53">
-        <v>-0.1707939286678868</v>
+        <v>0.1544818482578856</v>
       </c>
       <c r="D53">
-        <v>0.06398331194813571</v>
+        <v>-0.05044736668713638</v>
       </c>
       <c r="E53">
-        <v>-0.04552270444103094</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.09649909253020449</v>
+      </c>
+      <c r="F53">
+        <v>-0.005191932031302471</v>
+      </c>
+      <c r="G53">
+        <v>-0.0322422226070886</v>
+      </c>
+      <c r="H53">
+        <v>0.008059313714727819</v>
+      </c>
+      <c r="I53">
+        <v>0.04728798658996225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>7.404255971196423e-05</v>
+        <v>-0.01097223038252458</v>
       </c>
       <c r="C54">
-        <v>-0.04834863024328051</v>
+        <v>0.06638100661458537</v>
       </c>
       <c r="D54">
-        <v>-0.06343554536893035</v>
+        <v>0.01552551544756268</v>
       </c>
       <c r="E54">
-        <v>0.01532136398110975</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.04527893552832871</v>
+      </c>
+      <c r="F54">
+        <v>-0.005435886156913233</v>
+      </c>
+      <c r="G54">
+        <v>0.01467986042102503</v>
+      </c>
+      <c r="H54">
+        <v>0.08537394896942775</v>
+      </c>
+      <c r="I54">
+        <v>-0.01666385487637142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.03695923916274281</v>
+        <v>-0.03234057956825137</v>
       </c>
       <c r="C55">
-        <v>-0.1396258999297287</v>
+        <v>0.1145951139453841</v>
       </c>
       <c r="D55">
-        <v>0.06917840541141318</v>
+        <v>-0.05508739566317061</v>
       </c>
       <c r="E55">
-        <v>-0.01816755194041895</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.08029932965486386</v>
+      </c>
+      <c r="F55">
+        <v>0.008225827664317056</v>
+      </c>
+      <c r="G55">
+        <v>-0.02269922280992485</v>
+      </c>
+      <c r="H55">
+        <v>0.01499822584412065</v>
+      </c>
+      <c r="I55">
+        <v>0.005572043795648306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.05869131871643754</v>
+        <v>-0.0472627152225472</v>
       </c>
       <c r="C56">
-        <v>-0.2080398386452035</v>
+        <v>0.1850424966657573</v>
       </c>
       <c r="D56">
-        <v>0.09180981465540605</v>
+        <v>-0.07675198864955909</v>
       </c>
       <c r="E56">
-        <v>-0.07173730067297797</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.1379260466163031</v>
+      </c>
+      <c r="F56">
+        <v>0.00165005517904432</v>
+      </c>
+      <c r="G56">
+        <v>-0.07404222271772778</v>
+      </c>
+      <c r="H56">
+        <v>-0.002355927637670016</v>
+      </c>
+      <c r="I56">
+        <v>0.04282735174289047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01899002354372613</v>
+        <v>-0.01027770862921642</v>
       </c>
       <c r="C58">
-        <v>-0.1504814174396387</v>
+        <v>0.1621613483295635</v>
       </c>
       <c r="D58">
-        <v>-0.274827457164712</v>
+        <v>0.03810549212724101</v>
       </c>
       <c r="E58">
-        <v>0.09910888799561206</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.2538985798733919</v>
+      </c>
+      <c r="F58">
+        <v>-0.07011933376389934</v>
+      </c>
+      <c r="G58">
+        <v>-0.2340032729458159</v>
+      </c>
+      <c r="H58">
+        <v>0.0008285532788218541</v>
+      </c>
+      <c r="I58">
+        <v>-0.07906647597355108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.2508745116883693</v>
+        <v>-0.2733097285308922</v>
       </c>
       <c r="C59">
-        <v>0.03294833759644548</v>
+        <v>-0.03732850964935844</v>
       </c>
       <c r="D59">
-        <v>-0.07132085221747574</v>
+        <v>0.0159047532837843</v>
       </c>
       <c r="E59">
-        <v>0.004054963181388332</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04992695169950635</v>
+      </c>
+      <c r="F59">
+        <v>0.01681047467498649</v>
+      </c>
+      <c r="G59">
+        <v>-0.01810762636365487</v>
+      </c>
+      <c r="H59">
+        <v>-0.01819024327281086</v>
+      </c>
+      <c r="I59">
+        <v>0.09934877426421282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1295689680744843</v>
+        <v>-0.1488534563963165</v>
       </c>
       <c r="C60">
-        <v>-0.1502823919532988</v>
+        <v>0.1616302273002576</v>
       </c>
       <c r="D60">
-        <v>0.007568044592839489</v>
+        <v>-0.02526621575374086</v>
       </c>
       <c r="E60">
-        <v>0.04598428780616783</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.006193771654200096</v>
+      </c>
+      <c r="F60">
+        <v>0.1060133494156304</v>
+      </c>
+      <c r="G60">
+        <v>0.2628075576530163</v>
+      </c>
+      <c r="H60">
+        <v>-0.2876056355165686</v>
+      </c>
+      <c r="I60">
+        <v>-0.06700542618025197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.007552119844878648</v>
+        <v>-0.01433571015892608</v>
       </c>
       <c r="C61">
-        <v>-0.08378432464957503</v>
+        <v>0.1036668085604991</v>
       </c>
       <c r="D61">
-        <v>-0.03784177093107362</v>
+        <v>-0.0226817037786141</v>
       </c>
       <c r="E61">
-        <v>0.052023308781118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04611313028756939</v>
+      </c>
+      <c r="F61">
+        <v>0.005375719182553564</v>
+      </c>
+      <c r="G61">
+        <v>0.05596137017444204</v>
+      </c>
+      <c r="H61">
+        <v>0.05419284047407756</v>
+      </c>
+      <c r="I61">
+        <v>-0.004336224166011858</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0005168338576256417</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0008403133284526263</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.001283719003768703</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-9.766724789644144e-05</v>
+      </c>
+      <c r="F62">
+        <v>-0.001178212944731511</v>
+      </c>
+      <c r="G62">
+        <v>-0.00177171617001347</v>
+      </c>
+      <c r="H62">
+        <v>0.006076348866759156</v>
+      </c>
+      <c r="I62">
+        <v>0.001738552203622361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.007201982733197491</v>
+        <v>-0.01523540991540923</v>
       </c>
       <c r="C63">
-        <v>-0.05569136032131188</v>
+        <v>0.07198508825639313</v>
       </c>
       <c r="D63">
-        <v>-0.03695391952683717</v>
+        <v>-0.02615504325190388</v>
       </c>
       <c r="E63">
-        <v>0.03520809201333925</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.04756214167077468</v>
+      </c>
+      <c r="F63">
+        <v>0.006256020658039964</v>
+      </c>
+      <c r="G63">
+        <v>0.0351524980905809</v>
+      </c>
+      <c r="H63">
+        <v>0.07556832391222695</v>
+      </c>
+      <c r="I63">
+        <v>0.02277937030565063</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.01532419582012645</v>
+        <v>-0.01465132530794622</v>
       </c>
       <c r="C64">
-        <v>-0.1210109788391325</v>
+        <v>0.1063788184959031</v>
       </c>
       <c r="D64">
-        <v>0.01184273570139023</v>
+        <v>-0.01779300239825421</v>
       </c>
       <c r="E64">
-        <v>0.044217732552916</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.01355269117573565</v>
+      </c>
+      <c r="F64">
+        <v>-0.0280990396702663</v>
+      </c>
+      <c r="G64">
+        <v>0.02343500961956729</v>
+      </c>
+      <c r="H64">
+        <v>0.009399543584483097</v>
+      </c>
+      <c r="I64">
+        <v>-0.004119118927345696</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01791094951485202</v>
+        <v>-0.02538665015529463</v>
       </c>
       <c r="C65">
-        <v>-0.06679949100069955</v>
+        <v>0.0865221807986092</v>
       </c>
       <c r="D65">
-        <v>-0.06374651302142544</v>
+        <v>0.01038420112704389</v>
       </c>
       <c r="E65">
-        <v>0.06002355960118016</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.0929150648351855</v>
+      </c>
+      <c r="F65">
+        <v>-0.008532553888654497</v>
+      </c>
+      <c r="G65">
+        <v>0.0715729383759673</v>
+      </c>
+      <c r="H65">
+        <v>-0.003519578668878974</v>
+      </c>
+      <c r="I65">
+        <v>-0.04902372317376161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.001571641793842921</v>
+        <v>-0.006476106720002402</v>
       </c>
       <c r="C66">
-        <v>-0.1364752418659174</v>
+        <v>0.1551664882175585</v>
       </c>
       <c r="D66">
-        <v>-0.1038282129788362</v>
+        <v>-0.003922388556468369</v>
       </c>
       <c r="E66">
-        <v>0.0750571831675384</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.08143457194024908</v>
+      </c>
+      <c r="F66">
+        <v>0.004966230379122828</v>
+      </c>
+      <c r="G66">
+        <v>0.02266404523736125</v>
+      </c>
+      <c r="H66">
+        <v>0.0481451378079796</v>
+      </c>
+      <c r="I66">
+        <v>-0.02691929525515421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01712993702721396</v>
+        <v>-0.01729981681059416</v>
       </c>
       <c r="C67">
-        <v>-0.04109948345364295</v>
+        <v>0.05688196163456269</v>
       </c>
       <c r="D67">
-        <v>0.007414076216599629</v>
+        <v>-0.02591737376214952</v>
       </c>
       <c r="E67">
-        <v>0.03505700233941097</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.02850386644394708</v>
+      </c>
+      <c r="F67">
+        <v>-0.03682368597555971</v>
+      </c>
+      <c r="G67">
+        <v>0.03840301682851181</v>
+      </c>
+      <c r="H67">
+        <v>0.04009408206160546</v>
+      </c>
+      <c r="I67">
+        <v>0.02733666613699877</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2566240260041656</v>
+        <v>-0.2854694742550811</v>
       </c>
       <c r="C68">
-        <v>0.05109774367710952</v>
+        <v>-0.04628734621668381</v>
       </c>
       <c r="D68">
-        <v>-0.05798088149280405</v>
+        <v>0.03845351316644162</v>
       </c>
       <c r="E68">
-        <v>-0.002827934425374153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.04986348136408005</v>
+      </c>
+      <c r="F68">
+        <v>-0.01301804951900581</v>
+      </c>
+      <c r="G68">
+        <v>-0.05694132594584558</v>
+      </c>
+      <c r="H68">
+        <v>-0.01828241235221711</v>
+      </c>
+      <c r="I68">
+        <v>0.08543035979670004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.02526853798573768</v>
+        <v>-0.01291448123619729</v>
       </c>
       <c r="C69">
-        <v>-0.1116104817929867</v>
+        <v>0.08403170845520581</v>
       </c>
       <c r="D69">
-        <v>0.03346736125725448</v>
+        <v>-0.02419887355351463</v>
       </c>
       <c r="E69">
-        <v>0.024085452839394</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01664141558316104</v>
+      </c>
+      <c r="F69">
+        <v>-0.01013858975516563</v>
+      </c>
+      <c r="G69">
+        <v>0.0005476430274814725</v>
+      </c>
+      <c r="H69">
+        <v>0.05766817059516471</v>
+      </c>
+      <c r="I69">
+        <v>0.02456363567661258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2652429907549216</v>
+        <v>-0.2714880211919523</v>
       </c>
       <c r="C71">
-        <v>0.0710037204587993</v>
+        <v>-0.06817717642700138</v>
       </c>
       <c r="D71">
-        <v>-0.05879980391726547</v>
+        <v>0.02294988995697123</v>
       </c>
       <c r="E71">
-        <v>-0.02832729681779674</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.04703817662958966</v>
+      </c>
+      <c r="F71">
+        <v>-0.03529093023103935</v>
+      </c>
+      <c r="G71">
+        <v>-0.007208183476047446</v>
+      </c>
+      <c r="H71">
+        <v>0.06470952489306475</v>
+      </c>
+      <c r="I71">
+        <v>0.10742301412554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.06451631036094771</v>
+        <v>-0.05962374155896839</v>
       </c>
       <c r="C72">
-        <v>-0.172515289818998</v>
+        <v>0.1579143927382351</v>
       </c>
       <c r="D72">
-        <v>-0.01937134860014368</v>
+        <v>-0.01373701448195817</v>
       </c>
       <c r="E72">
-        <v>0.09287199010605185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.005261114399496661</v>
+      </c>
+      <c r="F72">
+        <v>0.01596917988578881</v>
+      </c>
+      <c r="G72">
+        <v>0.03692311347441591</v>
+      </c>
+      <c r="H72">
+        <v>-0.04397355135571437</v>
+      </c>
+      <c r="I72">
+        <v>-0.08384468037310426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1027237709016539</v>
+        <v>-0.1475624350952856</v>
       </c>
       <c r="C73">
-        <v>-0.157025010061472</v>
+        <v>0.2015749014113479</v>
       </c>
       <c r="D73">
-        <v>0.03282339901312434</v>
+        <v>-0.040836055040774</v>
       </c>
       <c r="E73">
-        <v>0.06490875087221842</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.007735529487012886</v>
+      </c>
+      <c r="F73">
+        <v>0.121388239819001</v>
+      </c>
+      <c r="G73">
+        <v>0.4413998735925532</v>
+      </c>
+      <c r="H73">
+        <v>-0.2831288570743176</v>
+      </c>
+      <c r="I73">
+        <v>0.01432277090260121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.04058867704232334</v>
+        <v>-0.03979342492236562</v>
       </c>
       <c r="C74">
-        <v>-0.1296354896598705</v>
+        <v>0.1202411561884036</v>
       </c>
       <c r="D74">
-        <v>0.09060475369429004</v>
+        <v>-0.04873306019864605</v>
       </c>
       <c r="E74">
-        <v>-0.0288462023159331</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.08239660721359612</v>
+      </c>
+      <c r="F74">
+        <v>-0.005912715671089204</v>
+      </c>
+      <c r="G74">
+        <v>-0.01900349473748864</v>
+      </c>
+      <c r="H74">
+        <v>0.01490741262617745</v>
+      </c>
+      <c r="I74">
+        <v>0.009381193082214761</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1095173519248383</v>
+        <v>-0.07365581662566924</v>
       </c>
       <c r="C75">
-        <v>-0.2330497163613625</v>
+        <v>0.2041060648393317</v>
       </c>
       <c r="D75">
-        <v>0.1970625695555938</v>
+        <v>-0.1005982282715315</v>
       </c>
       <c r="E75">
-        <v>-0.09643895568337629</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.229829886633658</v>
+      </c>
+      <c r="F75">
+        <v>-0.08832298258901947</v>
+      </c>
+      <c r="G75">
+        <v>-0.08756459346457934</v>
+      </c>
+      <c r="H75">
+        <v>-0.01113381462485178</v>
+      </c>
+      <c r="I75">
+        <v>0.08435721230618662</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.04962406640263828</v>
+        <v>-0.04132943288179522</v>
       </c>
       <c r="C76">
-        <v>-0.1567989163719177</v>
+        <v>0.1484058647191728</v>
       </c>
       <c r="D76">
-        <v>0.09191128864752017</v>
+        <v>-0.0775864521193861</v>
       </c>
       <c r="E76">
-        <v>-0.02428286603770864</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.1028966113277416</v>
+      </c>
+      <c r="F76">
+        <v>-0.0002793410222518254</v>
+      </c>
+      <c r="G76">
+        <v>-0.001973592542551551</v>
+      </c>
+      <c r="H76">
+        <v>0.01791627891786804</v>
+      </c>
+      <c r="I76">
+        <v>0.02140696373008782</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.03059469459241334</v>
+        <v>-0.02263046950033747</v>
       </c>
       <c r="C77">
-        <v>-0.1313340235907913</v>
+        <v>0.2276317227545624</v>
       </c>
       <c r="D77">
-        <v>-0.484594302362396</v>
+        <v>0.9385676333434658</v>
       </c>
       <c r="E77">
-        <v>-0.7936907331871097</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.2180482961716642</v>
+      </c>
+      <c r="F77">
+        <v>-0.027056645173702</v>
+      </c>
+      <c r="G77">
+        <v>0.02051637968178495</v>
+      </c>
+      <c r="H77">
+        <v>0.04526467215267873</v>
+      </c>
+      <c r="I77">
+        <v>-0.01865738684253358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02530433775071417</v>
+        <v>-0.02504948864224552</v>
       </c>
       <c r="C78">
-        <v>-0.139395871813484</v>
+        <v>0.1220777996136498</v>
       </c>
       <c r="D78">
-        <v>-0.1022725720991442</v>
+        <v>-0.05062100626842517</v>
       </c>
       <c r="E78">
-        <v>0.08112261328759311</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06051977953215024</v>
+      </c>
+      <c r="F78">
+        <v>0.0125200123096388</v>
+      </c>
+      <c r="G78">
+        <v>-0.07996191765287046</v>
+      </c>
+      <c r="H78">
+        <v>0.1433438430703821</v>
+      </c>
+      <c r="I78">
+        <v>-0.1808368035537882</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.08034312858100626</v>
+        <v>-0.06256097973681064</v>
       </c>
       <c r="C79">
-        <v>-0.2753454842161359</v>
+        <v>0.2055112421151442</v>
       </c>
       <c r="D79">
-        <v>0.2124728077115349</v>
+        <v>-0.0905414598088719</v>
       </c>
       <c r="E79">
-        <v>-0.1104720003112554</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.2369816977789458</v>
+      </c>
+      <c r="F79">
+        <v>-0.01605666707843054</v>
+      </c>
+      <c r="G79">
+        <v>-0.1639150232434132</v>
+      </c>
+      <c r="H79">
+        <v>0.04482526780133401</v>
+      </c>
+      <c r="I79">
+        <v>0.07917478068320237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.01115190559754746</v>
+        <v>-0.007324860667780936</v>
       </c>
       <c r="C80">
-        <v>-0.06899365426929756</v>
+        <v>0.06292602275026223</v>
       </c>
       <c r="D80">
-        <v>0.003119614729477931</v>
+        <v>-0.03566110589695956</v>
       </c>
       <c r="E80">
-        <v>0.03742809690215103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.047092256300569</v>
+      </c>
+      <c r="F80">
+        <v>0.07272210409893373</v>
+      </c>
+      <c r="G80">
+        <v>0.0405810856055421</v>
+      </c>
+      <c r="H80">
+        <v>-0.04038958216406839</v>
+      </c>
+      <c r="I80">
+        <v>0.06409112200759276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.04296901641778184</v>
+        <v>-0.0247219311245328</v>
       </c>
       <c r="C81">
-        <v>-0.1383724186785595</v>
+        <v>0.1245002221258229</v>
       </c>
       <c r="D81">
-        <v>0.1177947607505536</v>
+        <v>-0.05207703626342909</v>
       </c>
       <c r="E81">
-        <v>-0.06431280886271831</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.1046036796596443</v>
+      </c>
+      <c r="F81">
+        <v>-0.01814954079145013</v>
+      </c>
+      <c r="G81">
+        <v>-0.06239034696902088</v>
+      </c>
+      <c r="H81">
+        <v>0.06732553653353633</v>
+      </c>
+      <c r="I81">
+        <v>0.09081446350571445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.07769778456337069</v>
+        <v>-0.05618739094284581</v>
       </c>
       <c r="C82">
-        <v>-0.1756947851240741</v>
+        <v>0.1439872469257715</v>
       </c>
       <c r="D82">
-        <v>0.1385794209116853</v>
+        <v>-0.08187567380285045</v>
       </c>
       <c r="E82">
-        <v>-0.04257586902209292</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1318977756273367</v>
+      </c>
+      <c r="F82">
+        <v>-0.004031644121893676</v>
+      </c>
+      <c r="G82">
+        <v>-0.03662912982710963</v>
+      </c>
+      <c r="H82">
+        <v>0.0351005060467929</v>
+      </c>
+      <c r="I82">
+        <v>0.05349034795529691</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.008283259263790121</v>
+        <v>-0.004076723108904199</v>
       </c>
       <c r="C83">
-        <v>-0.05854003425508084</v>
+        <v>0.01156209285596497</v>
       </c>
       <c r="D83">
-        <v>-0.05043840584045085</v>
+        <v>0.04112744719721061</v>
       </c>
       <c r="E83">
-        <v>-0.008596519770131834</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.01978235466576661</v>
+      </c>
+      <c r="F83">
+        <v>0.9189360814507477</v>
+      </c>
+      <c r="G83">
+        <v>-0.2671309444621399</v>
+      </c>
+      <c r="H83">
+        <v>-0.02999275081105617</v>
+      </c>
+      <c r="I83">
+        <v>0.1230621901407443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.00186980810999314</v>
+        <v>0.001568814486132727</v>
       </c>
       <c r="C84">
-        <v>-0.02863663333960662</v>
+        <v>0.0387297946830976</v>
       </c>
       <c r="D84">
-        <v>-0.04036820961466915</v>
+        <v>-0.04023163900698502</v>
       </c>
       <c r="E84">
-        <v>0.06154535887550851</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.0706615256100785</v>
+      </c>
+      <c r="F84">
+        <v>-0.04928181516437337</v>
+      </c>
+      <c r="G84">
+        <v>-0.05565292775639588</v>
+      </c>
+      <c r="H84">
+        <v>0.06637149752379852</v>
+      </c>
+      <c r="I84">
+        <v>-0.04854811098585419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.05598147887512076</v>
+        <v>-0.03681340947689528</v>
       </c>
       <c r="C85">
-        <v>-0.1902965443434892</v>
+        <v>0.1505865448436315</v>
       </c>
       <c r="D85">
-        <v>0.1470455658673936</v>
+        <v>-0.09456485275059046</v>
       </c>
       <c r="E85">
-        <v>-0.05678885073245837</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1784710761645331</v>
+      </c>
+      <c r="F85">
+        <v>-0.01253206320306476</v>
+      </c>
+      <c r="G85">
+        <v>-0.07672097355073564</v>
+      </c>
+      <c r="H85">
+        <v>0.01869297110825941</v>
+      </c>
+      <c r="I85">
+        <v>0.07183036252725797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.0277479520867399</v>
+        <v>-0.01665078578942113</v>
       </c>
       <c r="C86">
-        <v>-0.03774107319111138</v>
+        <v>0.06789082967691054</v>
       </c>
       <c r="D86">
-        <v>-0.09556411627786737</v>
+        <v>0.01211446844322513</v>
       </c>
       <c r="E86">
-        <v>-0.02006525041762036</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.06449690322519683</v>
+      </c>
+      <c r="F86">
+        <v>-0.05283557164901734</v>
+      </c>
+      <c r="G86">
+        <v>-0.07231435658684852</v>
+      </c>
+      <c r="H86">
+        <v>0.08118081666349618</v>
+      </c>
+      <c r="I86">
+        <v>0.04367559997268212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02354967624312087</v>
+        <v>-0.0161546680855396</v>
       </c>
       <c r="C87">
-        <v>-0.1064204027837248</v>
+        <v>0.1182085746364537</v>
       </c>
       <c r="D87">
-        <v>-0.1398922178100981</v>
+        <v>0.02852666805359308</v>
       </c>
       <c r="E87">
-        <v>0.07657804325343175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.1118767765666679</v>
+      </c>
+      <c r="F87">
+        <v>-0.01865514253420809</v>
+      </c>
+      <c r="G87">
+        <v>-0.03867237682019081</v>
+      </c>
+      <c r="H87">
+        <v>0.0204513409033076</v>
+      </c>
+      <c r="I87">
+        <v>-0.1525576149392825</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02486984641042611</v>
+        <v>-0.03490350536793193</v>
       </c>
       <c r="C88">
-        <v>-0.07983376680054406</v>
+        <v>0.08487161247278045</v>
       </c>
       <c r="D88">
-        <v>0.05160830027857678</v>
+        <v>-0.02799492663263783</v>
       </c>
       <c r="E88">
-        <v>0.003621135988991115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01596394526382539</v>
+      </c>
+      <c r="F88">
+        <v>-0.008544294340366566</v>
+      </c>
+      <c r="G88">
+        <v>0.02409516526696816</v>
+      </c>
+      <c r="H88">
+        <v>0.01096571851731089</v>
+      </c>
+      <c r="I88">
+        <v>0.03182194055884324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4399237446208883</v>
+        <v>-0.4069940301985608</v>
       </c>
       <c r="C89">
-        <v>0.1227322910737347</v>
+        <v>-0.1146016659002475</v>
       </c>
       <c r="D89">
-        <v>0.02021217608629813</v>
+        <v>0.01090878069267377</v>
       </c>
       <c r="E89">
-        <v>0.2432046056477836</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02578721146162442</v>
+      </c>
+      <c r="F89">
+        <v>0.09291691164984736</v>
+      </c>
+      <c r="G89">
+        <v>-0.1028146940928428</v>
+      </c>
+      <c r="H89">
+        <v>0.04520893386098715</v>
+      </c>
+      <c r="I89">
+        <v>-0.7538368913016561</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.3253884866578477</v>
+        <v>-0.3243868642295922</v>
       </c>
       <c r="C90">
-        <v>0.08105022274031976</v>
+        <v>-0.07040889750277446</v>
       </c>
       <c r="D90">
-        <v>-0.08273695626174261</v>
+        <v>0.02366401023007059</v>
       </c>
       <c r="E90">
-        <v>-0.005147137352349999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.04964862986338681</v>
+      </c>
+      <c r="F90">
+        <v>-0.01895037284327328</v>
+      </c>
+      <c r="G90">
+        <v>-0.01981299125713768</v>
+      </c>
+      <c r="H90">
+        <v>-0.01032945351887785</v>
+      </c>
+      <c r="I90">
+        <v>0.1584019012412916</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.05940984403227031</v>
+        <v>-0.05509082200467827</v>
       </c>
       <c r="C91">
-        <v>-0.1616198544523729</v>
+        <v>0.1307213508090349</v>
       </c>
       <c r="D91">
-        <v>0.1160208091804791</v>
+        <v>-0.04940606941364603</v>
       </c>
       <c r="E91">
-        <v>-0.06775413952847416</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1296976259846614</v>
+      </c>
+      <c r="F91">
+        <v>0.02769885921314154</v>
+      </c>
+      <c r="G91">
+        <v>-0.05677949857789353</v>
+      </c>
+      <c r="H91">
+        <v>0.01097831097026067</v>
+      </c>
+      <c r="I91">
+        <v>0.0296129414635963</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3422435117689852</v>
+        <v>-0.3487348470359429</v>
       </c>
       <c r="C92">
-        <v>0.1334159573360879</v>
+        <v>-0.1226989396918483</v>
       </c>
       <c r="D92">
-        <v>-0.07183929447550304</v>
+        <v>0.05134044814478915</v>
       </c>
       <c r="E92">
-        <v>-0.03104255308309403</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06424940780418063</v>
+      </c>
+      <c r="F92">
+        <v>-0.1024694448412579</v>
+      </c>
+      <c r="G92">
+        <v>-0.01998425607358213</v>
+      </c>
+      <c r="H92">
+        <v>0.04181393320749099</v>
+      </c>
+      <c r="I92">
+        <v>0.1520484040145662</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3301171567779145</v>
+        <v>-0.3242063854397785</v>
       </c>
       <c r="C93">
-        <v>0.09984673702253691</v>
+        <v>-0.1070786020922717</v>
       </c>
       <c r="D93">
-        <v>0.01673459919087808</v>
+        <v>-0.006360316767124538</v>
       </c>
       <c r="E93">
-        <v>-0.02021375492409049</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.009502927098082198</v>
+      </c>
+      <c r="F93">
+        <v>-0.02018668914369311</v>
+      </c>
+      <c r="G93">
+        <v>-0.032333974459338</v>
+      </c>
+      <c r="H93">
+        <v>0.04159632325848044</v>
+      </c>
+      <c r="I93">
+        <v>0.1114004539310714</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.119493808657813</v>
+        <v>-0.09332819679838349</v>
       </c>
       <c r="C94">
-        <v>-0.2630438173336849</v>
+        <v>0.2165719331769477</v>
       </c>
       <c r="D94">
-        <v>0.2826497491759941</v>
+        <v>-0.1417736720025065</v>
       </c>
       <c r="E94">
-        <v>-0.1028870328643361</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3818973372007675</v>
+      </c>
+      <c r="F94">
+        <v>-0.04506367612162277</v>
+      </c>
+      <c r="G94">
+        <v>-0.2702664205760745</v>
+      </c>
+      <c r="H94">
+        <v>-0.1055726206801657</v>
+      </c>
+      <c r="I94">
+        <v>-0.1936184833645705</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.02884912440184262</v>
+        <v>-0.03284743774155958</v>
       </c>
       <c r="C95">
-        <v>-0.0613956957685655</v>
+        <v>0.1113640805093982</v>
       </c>
       <c r="D95">
-        <v>-0.01080089701489651</v>
+        <v>-0.001432317124421114</v>
       </c>
       <c r="E95">
-        <v>0.0279622040962998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.02644307304925107</v>
+      </c>
+      <c r="F95">
+        <v>-0.01998963275002645</v>
+      </c>
+      <c r="G95">
+        <v>0.1246188946649766</v>
+      </c>
+      <c r="H95">
+        <v>0.04868328616146293</v>
+      </c>
+      <c r="I95">
+        <v>0.004107675882206435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +3478,109 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.004429120591042907</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.006729239995729503</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02233262394148372</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.01763490086301802</v>
+      </c>
+      <c r="F97">
+        <v>-0.01598236824029484</v>
+      </c>
+      <c r="G97">
+        <v>0.02176152798046172</v>
+      </c>
+      <c r="H97">
+        <v>-0.00858315303432205</v>
+      </c>
+      <c r="I97">
+        <v>0.01055846093594922</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.08659634987857749</v>
+        <v>-0.1298701873596274</v>
       </c>
       <c r="C98">
-        <v>-0.1455143566177332</v>
+        <v>0.1692922993354301</v>
       </c>
       <c r="D98">
-        <v>-0.02200117933955254</v>
+        <v>-0.04436020715060265</v>
       </c>
       <c r="E98">
-        <v>0.05564433622649879</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.03179583171378353</v>
+      </c>
+      <c r="F98">
+        <v>0.07849618753462168</v>
+      </c>
+      <c r="G98">
+        <v>0.3719951272666926</v>
+      </c>
+      <c r="H98">
+        <v>-0.3273866944712548</v>
+      </c>
+      <c r="I98">
+        <v>-0.03794070253796571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.002204024104311987</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.00947580823021088</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.008091464308868104</v>
       </c>
       <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.01010780513898246</v>
+      </c>
+      <c r="F99">
+        <v>0.001987913884361156</v>
+      </c>
+      <c r="G99">
+        <v>0.00797056118357253</v>
+      </c>
+      <c r="H99">
+        <v>0.02287433027356786</v>
+      </c>
+      <c r="I99">
+        <v>-0.02148843894360325</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002121336718449181</v>
+        <v>-0.003957376126374946</v>
       </c>
       <c r="C101">
-        <v>-0.04905113870102244</v>
+        <v>0.07514095726126979</v>
       </c>
       <c r="D101">
-        <v>-0.07043631984450191</v>
+        <v>-0.008391092319023474</v>
       </c>
       <c r="E101">
-        <v>0.08308235135648215</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1126151142309547</v>
+      </c>
+      <c r="F101">
+        <v>0.04664440845053235</v>
+      </c>
+      <c r="G101">
+        <v>0.09261491218842369</v>
+      </c>
+      <c r="H101">
+        <v>0.1965634295139419</v>
+      </c>
+      <c r="I101">
+        <v>-0.04612965890355198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.03309687563069758</v>
+        <v>-0.01312028681036757</v>
       </c>
       <c r="C102">
-        <v>-0.09652151551759794</v>
+        <v>0.04701576005268458</v>
       </c>
       <c r="D102">
-        <v>0.07141443061480313</v>
+        <v>-0.02682916591894917</v>
       </c>
       <c r="E102">
-        <v>-0.02613319352166495</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.07015144632837239</v>
+      </c>
+      <c r="F102">
+        <v>0.01009795781623332</v>
+      </c>
+      <c r="G102">
+        <v>-0.03776084378525679</v>
+      </c>
+      <c r="H102">
+        <v>0.003759937558070508</v>
+      </c>
+      <c r="I102">
+        <v>-0.005809766032383171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
